--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/82.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/82.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1689318053781805</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.92017178325005</v>
+        <v>-1.923042794127303</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04938889911877255</v>
+        <v>0.04243803067910872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01587173594979571</v>
+        <v>0.008768187655365706</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.174201399026621</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.780972615248263</v>
+        <v>-1.789828046824701</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0001580747815304935</v>
+        <v>-0.007595315129676244</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01782824171757246</v>
+        <v>0.01085218897196782</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1913781575662783</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.749612645285029</v>
+        <v>-1.761736527566848</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04551343576180981</v>
+        <v>-0.050759641493105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01399707917632659</v>
+        <v>0.006871494614198378</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2092650784821183</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.772781419741015</v>
+        <v>-1.786797273006637</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08195827449640594</v>
+        <v>-0.08612312909136756</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03855649952598122</v>
+        <v>0.03009142469162612</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2152364929187255</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.740217325149985</v>
+        <v>-1.752459258865901</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1423439440659855</v>
+        <v>-0.1445617370078982</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04578282131187268</v>
+        <v>0.03528726181103969</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1991724994823141</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.596864320687086</v>
+        <v>-1.610999012396366</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2011713347054774</v>
+        <v>-0.1981051454571837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04048309893045327</v>
+        <v>0.03152850414937365</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1575042620024077</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.457689549981679</v>
+        <v>-1.469910234439457</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2996325268193207</v>
+        <v>-0.2909628294991964</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06814963302555545</v>
+        <v>0.05833719782336697</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09028400472452544</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.23773533096156</v>
+        <v>-1.249247706814753</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3894177255365545</v>
+        <v>-0.3734571716465655</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09327570025887834</v>
+        <v>0.08279115889189445</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.002138154328796157</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9445522333516089</v>
+        <v>-0.9488453705049564</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4357788847353449</v>
+        <v>-0.4149986842959333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1354090440978551</v>
+        <v>0.1238258373842034</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1018887919585648</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7467452503777514</v>
+        <v>-0.745287708671427</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5429632908194366</v>
+        <v>-0.5158728477227305</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1346409227666604</v>
+        <v>0.1230829003589495</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2164315290705168</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5253421467564754</v>
+        <v>-0.5174909393794276</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6695160021911332</v>
+        <v>-0.6368094588696261</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1474077918595303</v>
+        <v>0.135994579210979</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3423440080418566</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2807269831533781</v>
+        <v>-0.2689234137627443</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8048722025082645</v>
+        <v>-0.7721829733970919</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2109383516334686</v>
+        <v>0.1997801300825681</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4807362142696559</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05744607472039032</v>
+        <v>-0.04260150038740354</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9210914783486222</v>
+        <v>-0.8867873056189949</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2753487880962141</v>
+        <v>0.2635420706673376</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6361286090973406</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2919940403039689</v>
+        <v>0.3071660106141862</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.059861726139855</v>
+        <v>-1.027274808271567</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3091398305922973</v>
+        <v>0.2994375767285998</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8062341225246396</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5572508906638034</v>
+        <v>0.5736836502901825</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.201875240330527</v>
+        <v>-1.174336988793811</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3313366482408795</v>
+        <v>0.3250657560616176</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9869069775620325</v>
       </c>
       <c r="E17" t="n">
-        <v>0.807715109321654</v>
+        <v>0.8247034976978523</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.332411794098236</v>
+        <v>-1.308483555416223</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3595572370666796</v>
+        <v>0.3558157936153479</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.166787244412529</v>
       </c>
       <c r="E18" t="n">
-        <v>1.045964939598211</v>
+        <v>1.065193157184021</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.53010544769536</v>
+        <v>-1.507951128563052</v>
       </c>
       <c r="G18" t="n">
-        <v>0.408462011165492</v>
+        <v>0.4061088525791474</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.335498941502497</v>
       </c>
       <c r="E19" t="n">
-        <v>1.319337432547472</v>
+        <v>1.334682544961033</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.733397100297389</v>
+        <v>-1.712856150764415</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4433926435053968</v>
+        <v>0.4419602861050132</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.486670377145661</v>
       </c>
       <c r="E20" t="n">
-        <v>1.614141769852363</v>
+        <v>1.628912365286649</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.933033093490198</v>
+        <v>-1.91576610372953</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5090024825385734</v>
+        <v>0.5071010674400421</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.620610890066658</v>
       </c>
       <c r="E21" t="n">
-        <v>1.818562781173926</v>
+        <v>1.828153279680011</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.159482502414364</v>
+        <v>-2.144349882582179</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5831261909988654</v>
+        <v>0.5812625523592454</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.733687051217063</v>
       </c>
       <c r="E22" t="n">
-        <v>1.954318782347868</v>
+        <v>1.961683617816434</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.327637326171599</v>
+        <v>-2.313453052859998</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6453330006917899</v>
+        <v>0.6432930719105842</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.819268132205547</v>
       </c>
       <c r="E23" t="n">
-        <v>2.155771193606657</v>
+        <v>2.15755298325197</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.479132731548987</v>
+        <v>-2.465838566050481</v>
       </c>
       <c r="G23" t="n">
-        <v>0.702946822588759</v>
+        <v>0.7006345884995683</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.872227865836965</v>
       </c>
       <c r="E24" t="n">
-        <v>2.265958828174191</v>
+        <v>2.262071000944578</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.721098820970935</v>
+        <v>-2.706059068266907</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7494071449921913</v>
+        <v>0.7481920022305472</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.892186503359241</v>
       </c>
       <c r="E25" t="n">
-        <v>2.415163248720526</v>
+        <v>2.404318256974764</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.881743999500444</v>
+        <v>-2.865835388241458</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7938385567482672</v>
+        <v>0.7895808350251488</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.882039625868919</v>
       </c>
       <c r="E26" t="n">
-        <v>2.567057667945163</v>
+        <v>2.551603948212233</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.053061814681932</v>
+        <v>-3.036834464550882</v>
       </c>
       <c r="G26" t="n">
-        <v>0.823722883785282</v>
+        <v>0.8203261505215151</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.846047732727176</v>
       </c>
       <c r="E27" t="n">
-        <v>2.621410122222798</v>
+        <v>2.602192922770838</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.177570662224619</v>
+        <v>-3.155517080316076</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8655839223162738</v>
+        <v>0.8618015543677883</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.787828791145601</v>
       </c>
       <c r="E28" t="n">
-        <v>2.6361523853129</v>
+        <v>2.616993424568428</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.26724253156512</v>
+        <v>-3.242031467299247</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8926318668967048</v>
+        <v>0.886581337394425</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.711100882221105</v>
       </c>
       <c r="E29" t="n">
-        <v>2.646204071421526</v>
+        <v>2.62471713639665</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.363006641914614</v>
+        <v>-3.331697827572822</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8934409127250533</v>
+        <v>0.8866191138533362</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.619040363207361</v>
       </c>
       <c r="E30" t="n">
-        <v>2.645516225065518</v>
+        <v>2.621235406100333</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.402058843323645</v>
+        <v>-3.365049718734062</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9027370696554552</v>
+        <v>0.8971225434497757</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.516448646498093</v>
       </c>
       <c r="E31" t="n">
-        <v>2.635725826131027</v>
+        <v>2.611037336213426</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.485306353620556</v>
+        <v>-3.441926386637509</v>
       </c>
       <c r="G31" t="n">
-        <v>0.868066150470565</v>
+        <v>0.8613025903063359</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.405444573399047</v>
       </c>
       <c r="E32" t="n">
-        <v>2.598596289078666</v>
+        <v>2.57466490235841</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.534068678988891</v>
+        <v>-3.483431696847087</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8651872694977061</v>
+        <v>0.8576555880022823</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.289357600398393</v>
       </c>
       <c r="E33" t="n">
-        <v>2.530085532804931</v>
+        <v>2.507306328081468</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.576118599814439</v>
+        <v>-3.520179534262534</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8798823120141692</v>
+        <v>0.8694276770104901</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.169081423500057</v>
       </c>
       <c r="E34" t="n">
-        <v>2.472076632108516</v>
+        <v>2.449612231209313</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.596084245358577</v>
+        <v>-3.539733573806452</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8758890255034294</v>
+        <v>0.8638399091298726</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.048411805299788</v>
       </c>
       <c r="E35" t="n">
-        <v>2.411270699433549</v>
+        <v>2.390946964539315</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.569118936782015</v>
+        <v>-3.510206549109973</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8287628930116868</v>
+        <v>0.8156166853105835</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9291230625952138</v>
       </c>
       <c r="E36" t="n">
-        <v>2.327035492138021</v>
+        <v>2.305205420944702</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.550664349594325</v>
+        <v>-3.491346651998548</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8211855649617453</v>
+        <v>0.8070744835392847</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8141519397855841</v>
       </c>
       <c r="E37" t="n">
-        <v>2.175169405257567</v>
+        <v>2.156860414838598</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.496209584073806</v>
+        <v>-3.436799806359433</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7754933638895076</v>
+        <v>0.7616687539471237</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7042982850701237</v>
       </c>
       <c r="E38" t="n">
-        <v>2.091714911446205</v>
+        <v>2.072256887068686</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.453973928991945</v>
+        <v>-3.395121354046512</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7659721222247597</v>
+        <v>0.7539843925969337</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6003050530212636</v>
       </c>
       <c r="E39" t="n">
-        <v>2.007073607217382</v>
+        <v>1.989332837701202</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.343594264091613</v>
+        <v>-3.286356632764635</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7115488370866672</v>
+        <v>0.7002269175471514</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5020021944428243</v>
       </c>
       <c r="E40" t="n">
-        <v>1.882456939364885</v>
+        <v>1.864826351187196</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.260940159003432</v>
+        <v>-3.20510183067529</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6778427916231343</v>
+        <v>0.6667916033724821</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4093575249336346</v>
       </c>
       <c r="E41" t="n">
-        <v>1.771773488774142</v>
+        <v>1.757530189745492</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.203119353592012</v>
+        <v>-3.147778415306201</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6310314629556518</v>
+        <v>0.6215527198071791</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3225229995465677</v>
       </c>
       <c r="E42" t="n">
-        <v>1.635658611240544</v>
+        <v>1.625311009537113</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.141561826786624</v>
+        <v>-3.087739029943307</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5841666176380451</v>
+        <v>0.5754843281649505</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.241998294617238</v>
       </c>
       <c r="E43" t="n">
-        <v>1.512683645331564</v>
+        <v>1.504050150451229</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.035845193533145</v>
+        <v>-2.985220803544312</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5295985227407929</v>
+        <v>0.5215962095281002</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1687998815943689</v>
       </c>
       <c r="E44" t="n">
-        <v>1.320316472440921</v>
+        <v>1.315023046135987</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.981299134903591</v>
+        <v>-2.932167702051311</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4835568894236265</v>
+        <v>0.4766312052899034</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1029017126101819</v>
       </c>
       <c r="E45" t="n">
-        <v>1.137960061161751</v>
+        <v>1.134830911148605</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.866772716628192</v>
+        <v>-2.820281700851894</v>
       </c>
       <c r="G45" t="n">
-        <v>0.437002125872916</v>
+        <v>0.4311672369902544</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.044754444092716</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9629165427201445</v>
+        <v>0.9649848038455335</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.706582429624739</v>
+        <v>-2.66401072146048</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3803578997546682</v>
+        <v>0.3744931045087018</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.006283071276403949</v>
       </c>
       <c r="E47" t="n">
-        <v>0.887832682595859</v>
+        <v>0.8914466304983654</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.662167545069437</v>
+        <v>-2.619920084844166</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3443978589094326</v>
+        <v>0.3390823963368003</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.05014072728703622</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7416850071830902</v>
+        <v>0.7490372504986856</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.585147641425952</v>
+        <v>-2.544330177572383</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3521546251392025</v>
+        <v>0.3476828368155872</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.0883464051287311</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6051907910412584</v>
+        <v>0.615495894228414</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.5274574796016</v>
+        <v>-2.4870146322989</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3080663495515702</v>
+        <v>0.3041407458630463</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1214740860863788</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4716494347709868</v>
+        <v>0.4851324825640485</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.467917845309719</v>
+        <v>-2.427737859200277</v>
       </c>
       <c r="G50" t="n">
-        <v>0.261240854711996</v>
+        <v>0.2590671343054798</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1513952055457463</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3576369337386928</v>
+        <v>0.3728907530432177</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.439343889191187</v>
+        <v>-2.399661293124076</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2444665329362946</v>
+        <v>0.2422975345871423</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1783958387484246</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2006222303124639</v>
+        <v>0.2177239480653959</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.443556751369349</v>
+        <v>-2.403105246961482</v>
       </c>
       <c r="G52" t="n">
-        <v>0.229691215444645</v>
+        <v>0.2273679632216052</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2039115626763898</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1420293685220458</v>
+        <v>0.1628851218792799</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.353900622220061</v>
+        <v>-2.316549935481157</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1926010288703156</v>
+        <v>0.1906964657335418</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2281236975815297</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03900194693730932</v>
+        <v>0.06032360995444844</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.311145540828171</v>
+        <v>-2.275358642086278</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1695731291256866</v>
+        <v>0.1677551370405843</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2528184048166643</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0493697826089965</v>
+        <v>-0.02709898606171307</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.269331722870818</v>
+        <v>-2.235852336160753</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1523722481681127</v>
+        <v>0.1511948818653797</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2787576760685932</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08936403446212568</v>
+        <v>-0.06623382347461207</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.24253011228287</v>
+        <v>-2.21138027387233</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1237534325046235</v>
+        <v>0.1226547671579557</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3076760230413281</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1607709859190527</v>
+        <v>-0.1360840700205727</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.216643793813959</v>
+        <v>-2.18687515718236</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1232780787299907</v>
+        <v>0.121227131814936</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3400023578097546</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2375894151150114</v>
+        <v>-0.2132267471555194</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.199357915823835</v>
+        <v>-2.170713128844845</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1095274476863079</v>
+        <v>0.1073332650312148</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3765669516635065</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3113589692730108</v>
+        <v>-0.2883782901020208</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.193043738118738</v>
+        <v>-2.165281975866796</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08908093930061201</v>
+        <v>0.08690092281761055</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4165858634995321</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3525290134097516</v>
+        <v>-0.328865209940117</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.204561623038855</v>
+        <v>-2.176183632300925</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06181892811968409</v>
+        <v>0.06038657071930046</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4594491176357402</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.37899299689618</v>
+        <v>-0.3561114809298319</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.151447134800124</v>
+        <v>-2.126613048113803</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0231657405579031</v>
+        <v>0.02300833864577303</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.503931346827265</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4212538362839822</v>
+        <v>-0.397586884776105</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.132846950843714</v>
+        <v>-2.109610493565512</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05876533102436075</v>
+        <v>0.05824118265696762</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5498524914349665</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4316376404272028</v>
+        <v>-0.4083201211642544</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.15740794521249</v>
+        <v>-2.135780135476258</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0272896706557109</v>
+        <v>0.0272943927130748</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5966811751297239</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.4204196061496928</v>
+        <v>-0.395079472315873</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.125836269677441</v>
+        <v>-2.107772039231834</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009772411854755546</v>
+        <v>0.0103500768722729</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6444588200779374</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4736812651762655</v>
+        <v>-0.4491973977444333</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.135780922485818</v>
+        <v>-2.117868584885417</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009767689797391644</v>
+        <v>0.009925091709521713</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6929785692868013</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4932447488349118</v>
+        <v>-0.4686774583896506</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.123883698957467</v>
+        <v>-2.106892162543026</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02269960261767764</v>
+        <v>-0.02314505002900574</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7419356882889767</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5141697590334831</v>
+        <v>-0.4916549895223981</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.156158961039738</v>
+        <v>-2.138041213944006</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02238479879341751</v>
+        <v>-0.02325365734837549</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.790787226126564</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4605429275707686</v>
+        <v>-0.4373056832830066</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.188029700207834</v>
+        <v>-2.170620261716688</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04454698802133119</v>
+        <v>-0.04506641433136042</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8387684584295561</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4233142273137648</v>
+        <v>-0.4016085036310283</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.214164713697911</v>
+        <v>-2.196022569305799</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07409290094726639</v>
+        <v>-0.07434789204491711</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8855668892071406</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3438577420705061</v>
+        <v>-0.3236268743044283</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.223319208907395</v>
+        <v>-2.205186508630012</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08222428372790576</v>
+        <v>-0.08242890621367484</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9300097998020712</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2901285993649071</v>
+        <v>-0.2696726468644834</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.249013497043508</v>
+        <v>-2.230625018658913</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08793167706174204</v>
+        <v>-0.08732567970004128</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9709863737314359</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2304795707440962</v>
+        <v>-0.2093389199259067</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.301831282677874</v>
+        <v>-2.282783290281454</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07304932626984405</v>
+        <v>-0.07172400216970887</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.006540740916833</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.1027416229740602</v>
+        <v>-0.08171272751348303</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.31128956357777</v>
+        <v>-2.29248475713559</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08859119107356704</v>
+        <v>-0.08723596061012714</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.035275204445744</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.02893586637627097</v>
+        <v>-0.008309919810746755</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.355303860266701</v>
+        <v>-2.336658029755773</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07691669125087984</v>
+        <v>-0.07521360256163249</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.055488389036093</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0661836831430509</v>
+        <v>0.08810819548364818</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.386211299732561</v>
+        <v>-2.36717432546999</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.08230298468397079</v>
+        <v>-0.08007102556996641</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.066263910638743</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2028888178471369</v>
+        <v>0.2248589767422519</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.409803485332176</v>
+        <v>-2.391470097616827</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09345176212014356</v>
+        <v>-0.09018567244344464</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.066985653088795</v>
       </c>
       <c r="E77" t="n">
-        <v>0.346666020463227</v>
+        <v>0.3689132067236909</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.347157524304409</v>
+        <v>-2.331699869523676</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1024032088629806</v>
+        <v>-0.09723413006862912</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.057455198716241</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5299573991004495</v>
+        <v>0.5527885464549159</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.341014127673973</v>
+        <v>-2.32716669445433</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07739519306375524</v>
+        <v>-0.07321145023933802</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.037925999274269</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6502313481972776</v>
+        <v>0.6732167494256316</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.272881135989351</v>
+        <v>-2.260288983018945</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.06699879676756421</v>
+        <v>-0.06061929726893251</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.008866825785785</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8057444373817856</v>
+        <v>0.8282182823957168</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.251298185798076</v>
+        <v>-2.240527959960576</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.04637599824028259</v>
+        <v>-0.04018852907444959</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.9706476075026433</v>
       </c>
       <c r="E81" t="n">
-        <v>0.927789157990077</v>
+        <v>0.9513789825610104</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.211412541264317</v>
+        <v>-2.201622929339387</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01937055217612669</v>
+        <v>-0.01251097684549829</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.9232768161802052</v>
       </c>
       <c r="E82" t="n">
-        <v>1.080245502041019</v>
+        <v>1.103100259682305</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.15551990927649</v>
+        <v>-2.146052184261866</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02416816245785118</v>
+        <v>-0.01654676187251326</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8665643064251752</v>
       </c>
       <c r="E83" t="n">
-        <v>1.149050599890436</v>
+        <v>1.171980910449544</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.097692807788584</v>
+        <v>-2.090168996388767</v>
       </c>
       <c r="G83" t="n">
-        <v>0.002028237777956162</v>
+        <v>0.01068062088774604</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.801144005288889</v>
       </c>
       <c r="E84" t="n">
-        <v>1.28500335345454</v>
+        <v>1.308440498170708</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.015721826999048</v>
+        <v>-2.009173120444876</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0309539871700989</v>
+        <v>0.03952766932382375</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.7276394260317028</v>
       </c>
       <c r="E85" t="n">
-        <v>1.294921247937856</v>
+        <v>1.318380428921721</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.85849069594364</v>
+        <v>-1.854935773758183</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04658871910197863</v>
+        <v>0.05521749192494901</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.648204464812662</v>
       </c>
       <c r="E86" t="n">
-        <v>1.338471208986003</v>
+        <v>1.362879523500013</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.762912319850459</v>
+        <v>-1.761069930468977</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0664245080686099</v>
+        <v>0.07464560993916339</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5646775857141448</v>
       </c>
       <c r="E87" t="n">
-        <v>1.346232697273137</v>
+        <v>1.373348324675784</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571716217186065</v>
+        <v>-1.57157770350339</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06044008736942469</v>
+        <v>0.06883433134332126</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.480716679806209</v>
       </c>
       <c r="E88" t="n">
-        <v>1.337507909283767</v>
+        <v>1.367231686370409</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.42430303039977</v>
+        <v>-1.424821669700239</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08875826538074535</v>
+        <v>0.09766249154994334</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3995069716322606</v>
       </c>
       <c r="E89" t="n">
-        <v>1.348521321075508</v>
+        <v>1.378910908250461</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.231517168422862</v>
+        <v>-1.230999316131954</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08282736133168436</v>
+        <v>0.09122790138206614</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3259472115943973</v>
       </c>
       <c r="E90" t="n">
-        <v>1.2889242350857</v>
+        <v>1.318898281212629</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065036314001131</v>
+        <v>-1.06548333543158</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09222582950497077</v>
+        <v>0.1006421097465656</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2634603096981004</v>
       </c>
       <c r="E91" t="n">
-        <v>1.228149782793159</v>
+        <v>1.257188861562036</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8749097573296599</v>
+        <v>-0.8747995759911689</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05986714440927123</v>
+        <v>0.06835268149220325</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2156376099332971</v>
       </c>
       <c r="E92" t="n">
-        <v>1.213484646640001</v>
+        <v>1.242201051489011</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7107159526911787</v>
+        <v>-0.7091309154360289</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04195165877062681</v>
+        <v>0.05095190010622414</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1831312103896351</v>
       </c>
       <c r="E93" t="n">
-        <v>1.194383924603017</v>
+        <v>1.221496403967421</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5348271859814333</v>
+        <v>-0.5338481460879843</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02502150910191661</v>
+        <v>0.03250911806194398</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1660909987904052</v>
       </c>
       <c r="E94" t="n">
-        <v>1.162154309075264</v>
+        <v>1.188896893946163</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4052019892849578</v>
+        <v>-0.4006939985215526</v>
       </c>
       <c r="G94" t="n">
-        <v>0.00431371354208476</v>
+        <v>0.01295035646066164</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1609754528212925</v>
       </c>
       <c r="E95" t="n">
-        <v>1.13212517227909</v>
+        <v>1.155719718907387</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2695939459084183</v>
+        <v>-0.2649993840933416</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0005043589882166448</v>
+        <v>0.007187872457579817</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1624864050228405</v>
       </c>
       <c r="E96" t="n">
-        <v>1.100183602250535</v>
+        <v>1.124448681024506</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1622458418357114</v>
+        <v>-0.1563558622838042</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0354223991751511</v>
+        <v>-0.02778683241772147</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1638340776303428</v>
       </c>
       <c r="E97" t="n">
-        <v>1.047553124891604</v>
+        <v>1.070850181905975</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.08019537308054916</v>
+        <v>-0.0745588106071714</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06592059366947323</v>
+        <v>-0.05828187887380099</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1622859644355547</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9867094157577256</v>
+        <v>1.007100833474176</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06833041694418458</v>
+        <v>-0.06426944761122881</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09054612282222249</v>
+        <v>-0.08350553529264451</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1570174319959897</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9349257606860543</v>
+        <v>0.9530458688104678</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.006509241935978769</v>
+        <v>-0.001947734522449376</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1278488019779275</v>
+        <v>-0.1202274013925896</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1507170516041985</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9153433887979524</v>
+        <v>0.9293505849584073</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04325179856482118</v>
+        <v>0.04561125322765091</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1289112648848054</v>
+        <v>-0.1219824327128398</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.146662020400374</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8545878247348672</v>
+        <v>0.8658263212609542</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06795445465451416</v>
+        <v>0.0710127738072014</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1589640119677995</v>
+        <v>-0.1530535701673154</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1503346782426916</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7932089490997469</v>
+        <v>0.8008460898762978</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1125810447816313</v>
+        <v>0.1143581123695797</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1503006107241605</v>
+        <v>-0.1449457976734956</v>
       </c>
     </row>
   </sheetData>
